--- a/model_file.xlsx
+++ b/model_file.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyc/Documents/python_files/projects/house_pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCBF4B9-A3D9-494B-8BB6-70A89C57B006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE032EEB-7A4E-0C4A-A668-5EA975D3CB52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="500" windowWidth="30280" windowHeight="21080" xr2:uid="{74E402E4-42F0-B448-9910-778662D8B83B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{74E402E4-42F0-B448-9910-778662D8B83B}"/>
   </bookViews>
   <sheets>
-    <sheet name="變數清單" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId2"/>
+    <sheet name="data_sources" sheetId="3" r:id="rId1"/>
+    <sheet name="tables" sheetId="4" r:id="rId2"/>
+    <sheet name="rawdata_columns" sheetId="8" r:id="rId3"/>
+    <sheet name="variables" sheetId="9" r:id="rId4"/>
+    <sheet name="definition" sheetId="7" r:id="rId5"/>
+    <sheet name="long_list" sheetId="1" r:id="rId6"/>
+    <sheet name="total_columns" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="201">
   <si>
     <r>
       <rPr>
@@ -491,6 +496,1156 @@
   </si>
   <si>
     <t>遷入人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://plvr.land.moi.gov.tw/DownloadOpenData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實價登錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全年下雨天數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_lvr_land_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_lvr_land_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_lvr_land_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_lvr_land_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_lvr_land_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_lvr_land_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_lvr_land_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_lvr_land_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_lvr_land_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台北市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成屋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>預售屋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>租賃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>基隆市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新北市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The villages and towns urban district</t>
+  </si>
+  <si>
+    <t>transaction sign</t>
+  </si>
+  <si>
+    <t>land shifting total area square meter</t>
+  </si>
+  <si>
+    <t>the use zoning or compiles and checks</t>
+  </si>
+  <si>
+    <t>the non-metropolis land use district</t>
+  </si>
+  <si>
+    <t>non-metropolis land use</t>
+  </si>
+  <si>
+    <t>transaction year month and day</t>
+  </si>
+  <si>
+    <t>transaction pen number</t>
+  </si>
+  <si>
+    <t>shifting level</t>
+  </si>
+  <si>
+    <t>total floor number</t>
+  </si>
+  <si>
+    <t>building state</t>
+  </si>
+  <si>
+    <t>main use</t>
+  </si>
+  <si>
+    <t>main building materials</t>
+  </si>
+  <si>
+    <t>construction to complete the years</t>
+  </si>
+  <si>
+    <t>building shifting total area</t>
+  </si>
+  <si>
+    <t>Building present situation pattern - room</t>
+  </si>
+  <si>
+    <t>building present situation pattern - hall</t>
+  </si>
+  <si>
+    <t>building present situation pattern - health</t>
+  </si>
+  <si>
+    <t>Whether there is manages the organization</t>
+  </si>
+  <si>
+    <t>total price NTD</t>
+  </si>
+  <si>
+    <t>the unit price (NTD / square meter)</t>
+  </si>
+  <si>
+    <t>the berth category</t>
+  </si>
+  <si>
+    <t>berth shifting total area square meter</t>
+  </si>
+  <si>
+    <t>the berth total price NTD</t>
+  </si>
+  <si>
+    <t>the note</t>
+  </si>
+  <si>
+    <t>serial number</t>
+  </si>
+  <si>
+    <t>land sector position building sector house number plate</t>
+  </si>
+  <si>
+    <t>building present situation pattern - compartmented</t>
+  </si>
+  <si>
+    <t>Whether there is attaches the furniture</t>
+  </si>
+  <si>
+    <t>建坪單價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(總價-車位價)/(總面積-車位面積)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以建物移轉總面積計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以不計入共同使用部分面積計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(總價-車位價)/(總面積-共同使用部分面積-車位面積)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以不計入附屬建物及共同使用部分計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(總價-車位價)/(總面積-附屬建物-共同使用部分面積-車位面積)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄉鎮市區</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>交易標的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>土地區段位置建物區段門牌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>土地移轉總面積平方公尺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>土地面積平方公尺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>都市土地使用分區</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>非都市土地使用分區</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>非都市土地使用編定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>交易年月日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>租賃年月日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>交易筆棟數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>租賃筆棟數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>移轉層次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>租賃層次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總樓層數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建物型態</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主要用途</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主要建材</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建築完成年月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建物移轉總面積平方公尺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建物總面積平方公尺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建物現況格局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>房</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建物現況格局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建物現況格局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>衛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建物現況格局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>隔間</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有無管理組織</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有無附傢俱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總價元</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總額元</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單價元平方公尺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>車位類別</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>車位移轉總面積</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平方公尺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>車位移轉總面積平方公尺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>車位面積平方公尺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>車位總價元</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>車位總額元</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備註</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>編號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主建物面積</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2019 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以後才有</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>附屬建物面積</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陽台面積</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>電梯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>移轉編號</t>
+    </r>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_ch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The villages and towns urban district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>land_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建物價格計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅分區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the use zoning or compiles and checks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the non-metropolis land use district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non_metropolis_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyymmdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extract yyy / mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>都市、商業區可給定分級</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translate, recode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building present situation pattern - compartmented</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convert to flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extract land / building / berth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>berth_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>berth_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>berth_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_building_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancillary_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrace_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non_metropolis_use_district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_yyymmdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>residential_zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +1653,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,13 +1682,41 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -545,21 +1728,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -870,15 +2072,1196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B440C23A-276B-5E40-AC37-59A8D7C391C7}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="18">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="18">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{E770634C-7E6A-2C4B-8BE8-8B788FE27257}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDED684E-C754-BE4D-B195-5CA19F07CBBD}">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18">
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18">
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18">
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18">
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18">
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18">
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18">
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18">
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18073AB2-BF79-5442-AFA9-FAAB6E503A17}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27" style="4" customWidth="1"/>
+    <col min="3" max="3" width="48" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBFB852-3D9B-F24A-B5AB-5DD78FD26663}">
+  <dimension ref="B1:D34"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="28.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DE123A-F387-8B4C-8E68-CAFA80E76C7C}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB01176-9578-8A43-A586-7CD532AF5AD4}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -940,44 +3323,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18">
+    <row r="11" spans="1:3">
       <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:3" ht="18">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="B17" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18">
       <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -999,53 +3387,58 @@
         <v>25</v>
       </c>
     </row>
+    <row r="26" spans="1:2" ht="18">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="27" spans="1:2" ht="18">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18">
       <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18">
-      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="30" spans="1:2" ht="18">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18">
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="32" spans="1:2" ht="18">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18">
-      <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1054,14 +3447,646 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B440C23A-276B-5E40-AC37-59A8D7C391C7}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26FCDC5-4BC7-494F-944E-828136CE9D91}">
+  <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="18">
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="18">
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="18">
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="18">
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18">
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="18">
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18">
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="4" customFormat="1" ht="18">
+      <c r="B9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="18">
+      <c r="B10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18">
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="18">
+      <c r="B12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="18">
+      <c r="B13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18">
+      <c r="B14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18">
+      <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18">
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="18">
+      <c r="B17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="18">
+      <c r="B18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="18">
+      <c r="B19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="18">
+      <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="18">
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="18">
+      <c r="B22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="18">
+      <c r="H23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="18">
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="18">
+      <c r="B25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="18">
+      <c r="B26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="18">
+      <c r="B27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="18">
+      <c r="B28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="18">
+      <c r="B29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="18">
+      <c r="B30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="18">
+      <c r="B31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="18">
+      <c r="B32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="18">
+      <c r="B33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="18">
+      <c r="B34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="18">
+      <c r="B35" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/model_file.xlsx
+++ b/model_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyc/Documents/python_files/projects/house_pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE032EEB-7A4E-0C4A-A668-5EA975D3CB52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA966FAC-E999-494B-A261-E6F4FA0DE8D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{74E402E4-42F0-B448-9910-778662D8B83B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="206">
   <si>
     <r>
       <rPr>
@@ -1493,10 +1493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>floor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>total_floor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1646,6 +1642,30 @@
   </si>
   <si>
     <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>berth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_floor_ch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor_ch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2241,7 +2261,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18073AB2-BF79-5442-AFA9-FAAB6E503A17}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
@@ -2251,13 +2271,13 @@
     <col min="2" max="2" width="27" style="4" customWidth="1"/>
     <col min="3" max="3" width="48" style="4" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="4"/>
+    <col min="5" max="6" width="20.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="4" t="s">
         <v>143</v>
       </c>
@@ -2271,13 +2291,16 @@
         <v>149</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18">
+    <row r="2" spans="1:8" ht="18">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2293,11 +2316,11 @@
       <c r="E2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2308,7 +2331,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>150</v>
@@ -2317,7 +2340,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18">
+    <row r="4" spans="1:8" ht="18">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2334,7 +2357,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row r="5" spans="1:8" ht="18">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2348,10 +2371,10 @@
         <v>148</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2368,13 +2391,16 @@
         <v>150</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row r="7" spans="1:8" ht="18">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2385,7 +2411,7 @@
         <v>157</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>150</v>
@@ -2394,7 +2420,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18">
+    <row r="8" spans="1:8" ht="18">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2414,7 +2440,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18">
+    <row r="9" spans="1:8" ht="18">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2428,13 +2454,16 @@
         <v>159</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18">
+    <row r="10" spans="1:8" ht="18">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2445,16 +2474,19 @@
         <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>150</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18">
+        <v>151</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2465,16 +2497,16 @@
         <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18">
+    <row r="12" spans="1:8" ht="18">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2485,16 +2517,16 @@
         <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18">
+    <row r="13" spans="1:8" ht="18">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2505,16 +2537,16 @@
         <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18">
+      <c r="G13" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2525,16 +2557,16 @@
         <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18">
+      <c r="G14" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2545,16 +2577,16 @@
         <v>71</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:8" ht="18">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2565,16 +2597,16 @@
         <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18">
+    <row r="17" spans="1:8" ht="18">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2585,13 +2617,13 @@
         <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2602,13 +2634,13 @@
         <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2619,13 +2651,13 @@
         <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2636,13 +2668,13 @@
         <v>76</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2650,19 +2682,19 @@
         <v>120</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18">
+      <c r="G21" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2673,16 +2705,16 @@
         <v>77</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18">
+      <c r="G22" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2693,13 +2725,13 @@
         <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2710,13 +2742,13 @@
         <v>79</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2727,16 +2759,16 @@
         <v>80</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18">
+      <c r="G25" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2747,13 +2779,13 @@
         <v>81</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2764,13 +2796,13 @@
         <v>82</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2781,10 +2813,10 @@
         <v>83</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2795,10 +2827,10 @@
         <v>84</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2806,16 +2838,16 @@
         <v>134</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18">
+    <row r="31" spans="1:8" ht="18">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2823,16 +2855,16 @@
         <v>136</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18">
+    <row r="32" spans="1:8" ht="18">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2840,16 +2872,16 @@
         <v>137</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18">
+    <row r="33" spans="1:8" ht="18">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2857,19 +2889,19 @@
         <v>138</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="G33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18">
+    <row r="34" spans="1:8" ht="18">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2877,9 +2909,9 @@
         <v>139</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2891,15 +2923,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBFB852-3D9B-F24A-B5AB-5DD78FD26663}">
-  <dimension ref="B1:D34"/>
+  <dimension ref="B1:D38"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="28.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -2909,8 +2943,8 @@
       <c r="C1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D1" t="s">
-        <v>198</v>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -2923,7 +2957,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>150</v>
@@ -2942,176 +2976,180 @@
         <v>148</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" t="s">
-        <v>195</v>
+        <v>165</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" t="s">
-        <v>195</v>
+        <v>165</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8">
+        <v>165</v>
+      </c>
+      <c r="D8" s="1">
         <v>2019</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>150</v>
+      <c r="D13" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="4" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="4" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>150</v>
@@ -3119,65 +3157,97 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="4" t="s">
-        <v>194</v>
+        <v>182</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/model_file.xlsx
+++ b/model_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyc/Documents/python_files/projects/house_pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA966FAC-E999-494B-A261-E6F4FA0DE8D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378AC812-843B-114C-AB2E-6576DF5AE43A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{74E402E4-42F0-B448-9910-778662D8B83B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="215">
   <si>
     <r>
       <rPr>
@@ -1637,14 +1637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yyyy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>land</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1666,6 +1658,306 @@
   </si>
   <si>
     <t>floor_ch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>刪除相關備註，排除地下、避難、樓梯等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住宅大樓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層含以上有電梯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>華廈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層含以下有電梯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公寓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓含以下無電梯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">透天厝
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>幾乎都是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>鋼筋混凝土造</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_yyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build_yyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">住家
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">商業
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">停車場
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無法判斷</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有空缺值</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1673,7 +1965,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1718,6 +2010,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1756,7 +2062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1776,6 +2082,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2291,7 +2603,7 @@
         <v>149</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>146</v>
@@ -2497,10 +2809,13 @@
         <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>165</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>152</v>
@@ -2517,10 +2832,13 @@
         <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>165</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>152</v>
@@ -2562,6 +2880,9 @@
       <c r="E14" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="G14" s="4" t="s">
         <v>167</v>
       </c>
@@ -2582,8 +2903,14 @@
       <c r="E15" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>151</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18">
@@ -2601,6 +2928,9 @@
       </c>
       <c r="E16" s="4" t="s">
         <v>165</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>160</v>
@@ -2923,20 +3253,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBFB852-3D9B-F24A-B5AB-5DD78FD26663}">
-  <dimension ref="B1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="4" t="s">
         <v>141</v>
       </c>
@@ -2946,8 +3277,14 @@
       <c r="D1" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="2:4">
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>145</v>
       </c>
@@ -2955,7 +3292,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>187</v>
       </c>
@@ -2963,7 +3303,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>147</v>
       </c>
@@ -2971,15 +3314,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="D5" s="1">
+        <v>33.619999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>195</v>
       </c>
@@ -2990,7 +3342,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>196</v>
       </c>
@@ -3001,9 +3356,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>165</v>
@@ -3012,20 +3370,26 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>165</v>
@@ -3034,9 +3398,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>165</v>
@@ -3045,9 +3412,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>165</v>
@@ -3056,7 +3426,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>162</v>
       </c>
@@ -3067,63 +3440,103 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="1">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="95">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="B15" s="4" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="76">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="4" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>165</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="B18" s="4" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
+        <v>165</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="4" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:5">
       <c r="B22" s="4" t="s">
         <v>169</v>
       </c>
@@ -3131,7 +3544,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:5">
       <c r="B23" s="4" t="s">
         <v>170</v>
       </c>
@@ -3139,7 +3552,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:5">
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
@@ -3147,7 +3560,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:5">
       <c r="B25" s="4" t="s">
         <v>175</v>
       </c>
@@ -3155,7 +3568,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:5">
       <c r="B26" s="4" t="s">
         <v>174</v>
       </c>
@@ -3163,7 +3576,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:5">
       <c r="B27" s="4" t="s">
         <v>176</v>
       </c>
@@ -3171,7 +3584,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:5">
       <c r="B28" s="4" t="s">
         <v>177</v>
       </c>
@@ -3179,7 +3592,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:5">
       <c r="B29" s="4" t="s">
         <v>179</v>
       </c>
@@ -3187,7 +3600,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:5">
       <c r="B30" s="4" t="s">
         <v>180</v>
       </c>
@@ -3195,7 +3608,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:5">
       <c r="B31" s="4" t="s">
         <v>181</v>
       </c>
@@ -3203,7 +3616,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="1:5">
       <c r="B32" s="4" t="s">
         <v>191</v>
       </c>

--- a/model_file.xlsx
+++ b/model_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyc/Documents/python_files/projects/house_pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378AC812-843B-114C-AB2E-6576DF5AE43A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89280FDF-D4DA-5146-BDC8-5A2AC24C9373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{74E402E4-42F0-B448-9910-778662D8B83B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="227">
   <si>
     <r>
       <rPr>
@@ -1537,10 +1537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>convert to flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>manage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1618,10 +1614,6 @@
   </si>
   <si>
     <t>shift_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1834,28 +1826,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>幾乎都是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>鋼筋混凝土造</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buy_yyyy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1958,6 +1928,217 @@
       </rPr>
       <t>有空缺值</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 / 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the berth category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>berth_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columns_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convert to binary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">有
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">坡道平面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">坡道機械
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">升降平面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">升降機械
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">塔式車位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 台北市
+2: 新北市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>district table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 鋼筋混凝土造
+2: 磚造
+3: 其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 房地(土地+建物)+車位
+2: 房地(土地+建物)
+3: 建物
+4: 車位
+5: 土地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建模時可排除車位及土地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1965,7 +2146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2013,13 +2194,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="PMingLiU"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
@@ -2062,7 +2236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2087,8 +2261,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2603,7 +2786,7 @@
         <v>149</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>146</v>
@@ -2643,13 +2826,10 @@
         <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
@@ -2723,7 +2903,7 @@
         <v>157</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>150</v>
@@ -2786,7 +2966,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>150</v>
@@ -2795,7 +2975,7 @@
         <v>151</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18">
@@ -2809,7 +2989,7 @@
         <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>165</v>
@@ -2832,7 +3012,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>165</v>
@@ -2898,20 +3078,15 @@
         <v>71</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>208</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="18">
       <c r="A16" s="4">
@@ -2924,7 +3099,7 @@
         <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>165</v>
@@ -3015,13 +3190,13 @@
         <v>172</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>150</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18">
@@ -3035,13 +3210,13 @@
         <v>77</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>150</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18">
@@ -3055,7 +3230,7 @@
         <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>165</v>
@@ -3072,7 +3247,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>165</v>
@@ -3086,13 +3261,16 @@
         <v>126</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>150</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>167</v>
@@ -3109,7 +3287,7 @@
         <v>81</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>166</v>
@@ -3126,7 +3304,7 @@
         <v>82</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>165</v>
@@ -3143,7 +3321,10 @@
         <v>83</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18">
@@ -3157,7 +3338,10 @@
         <v>84</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18">
@@ -3168,7 +3352,7 @@
         <v>134</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>166</v>
@@ -3185,7 +3369,7 @@
         <v>136</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>166</v>
@@ -3202,7 +3386,7 @@
         <v>137</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>166</v>
@@ -3219,13 +3403,13 @@
         <v>138</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>150</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>135</v>
@@ -3239,7 +3423,10 @@
         <v>139</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>135</v>
@@ -3253,7 +3440,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBFB852-3D9B-F24A-B5AB-5DD78FD26663}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -3261,407 +3448,561 @@
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="8.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>191</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>165</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>165</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="1">
-        <v>33.619999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="85">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>166</v>
+      </c>
+      <c r="D7" s="9">
+        <v>33.619999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18">
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="1">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="95">
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="76">
+      <c r="D15" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18">
+      <c r="D16" s="9">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="95">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="1">
-        <v>2003</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18">
+      <c r="D17" s="9">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="76">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="1">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" s="9">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2003</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="9">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21" s="9">
+        <v>33.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="51">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="B25" s="4" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>165</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="38">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
       <c r="B26" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>165</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="38">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
       <c r="B27" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
       <c r="B28" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D28" s="9">
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="B29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="9">
+        <v>106824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="114">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="9">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="4" t="s">
+      <c r="C31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="9">
+        <v>43.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="D33" s="9">
+        <v>133.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
+      <c r="D34" s="9">
+        <v>35.950000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
       <c r="B35" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="D35" s="9">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="38">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
       <c r="B36" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="4" t="s">
-        <v>193</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model_file.xlsx
+++ b/model_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyc/Documents/python_files/projects/house_pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89280FDF-D4DA-5146-BDC8-5A2AC24C9373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC76F22-10B0-0140-9CEE-694497F12577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{74E402E4-42F0-B448-9910-778662D8B83B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{74E402E4-42F0-B448-9910-778662D8B83B}"/>
   </bookViews>
   <sheets>
     <sheet name="data_sources" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="230">
   <si>
     <r>
       <rPr>
@@ -2139,6 +2139,18 @@
   </si>
   <si>
     <t>建模時可排除車位及土地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road_section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路段資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義路二段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2758,7 +2770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18073AB2-BF79-5442-AFA9-FAAB6E503A17}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3442,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBFB852-3D9B-F24A-B5AB-5DD78FD26663}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3516,10 +3528,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>150</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="85">

--- a/model_file.xlsx
+++ b/model_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyc/Documents/python_files/projects/house_pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC76F22-10B0-0140-9CEE-694497F12577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D811409-0F64-5D40-9864-B98316AF5663}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{74E402E4-42F0-B448-9910-778662D8B83B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{74E402E4-42F0-B448-9910-778662D8B83B}"/>
   </bookViews>
   <sheets>
     <sheet name="data_sources" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="232">
   <si>
     <r>
       <rPr>
@@ -2151,6 +2151,37 @@
   </si>
   <si>
     <t>信義路二段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2020 Q3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以後才有</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2020 Q3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以後才有</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2770,7 +2801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18073AB2-BF79-5442-AFA9-FAAB6E503A17}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3369,8 +3400,11 @@
       <c r="E30" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="F30" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="H30" s="4" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18">
@@ -3386,8 +3420,11 @@
       <c r="E31" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="F31" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="H31" s="4" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18">
@@ -3403,8 +3440,11 @@
       <c r="E32" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="F32" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="H32" s="4" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18">
@@ -3420,11 +3460,14 @@
       <c r="E33" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="F33" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="G33" s="4" t="s">
         <v>218</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18">
@@ -3441,7 +3484,7 @@
         <v>151</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3452,9 +3495,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBFB852-3D9B-F24A-B5AB-5DD78FD26663}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3951,76 +3994,17 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="9">
-        <v>133.66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="9">
-        <v>35.950000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="9">
-        <v>6.11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="38">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="33" spans="2:3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
